--- a/biology/Médecine/Onychoptose/Onychoptose.xlsx
+++ b/biology/Médecine/Onychoptose/Onychoptose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'onychoptose (du grec onux, « ongle » et ptôsis, « chute ») désigne la chute prématurée et totale de l'ongle.
 </t>
@@ -511,7 +523,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle peut être due à l'arrêt de la pousse de l'ongle qui se détache naturellement[réf. nécessaire] ou à la suite d'un traumatisme, des engelures sévères, l'onychopathie comme l'onychomycose chronique ou effet secondaire de la chimiothérapie.
 Avec le psoriasis, les récidives pustuleuses localisées à la matrice unguéale peuvent entraîner une onychoptose définitive[réf. nécessaire].
@@ -543,7 +557,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans un premier temps désinfection et protection du lit unguéal. Les causes de la chute doivent être identifiées pour déterminer la pertinence d'un traitement médicamenteux.
 </t>
